--- a/99_other/tmp_pop.xlsx
+++ b/99_other/tmp_pop.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\lf_sim\99_other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelshamiri/projects/lf_sim/99_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4026FFED-0CF5-41C8-9393-D653ED5522F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5A9FE-4798-7D4C-BED8-43B6F4A58CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E60EF88D-6FBB-4E24-A30B-A3F4B0DC8747}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{E60EF88D-6FBB-4E24-A30B-A3F4B0DC8747}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tm" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$45:$D$55</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>2024-25</t>
+  </si>
+  <si>
+    <t>growth_rate</t>
+  </si>
+  <si>
+    <t>over_15yr_rate</t>
   </si>
 </sst>
 </file>
@@ -112,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,25 +159,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,40 +510,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB833B-A7A3-4B5D-8095-2F1DB503CD8E}">
   <dimension ref="A2:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15625" customWidth="1"/>
-    <col min="6" max="6" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.20703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.89453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -571,8 +577,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" s="2">
@@ -613,8 +619,8 @@
         <v>-1.21E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6" s="2">
@@ -655,8 +661,8 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" s="2">
@@ -697,8 +703,8 @@
         <v>-1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8" s="2">
@@ -739,8 +745,8 @@
         <v>-1.26E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2019</v>
       </c>
       <c r="B9" s="2">
@@ -781,8 +787,8 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2020</v>
       </c>
       <c r="B10" s="2">
@@ -823,8 +829,8 @@
         <v>-1.23E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2021</v>
       </c>
       <c r="B11" s="2">
@@ -865,8 +871,8 @@
         <v>-7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12" s="2">
@@ -907,8 +913,8 @@
         <v>-7.6E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2023</v>
       </c>
       <c r="B13" s="2">
@@ -949,8 +955,8 @@
         <v>-7.6E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14" s="2">
@@ -991,20 +997,20 @@
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2023</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>80.895813752642923</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>80.9007527837623</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>80.955777855267442</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>80.999480698664456</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>81.097554783584684</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>81.068907884003423</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>80.552727748340359</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>81.094159946655921</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>82.608594534154349</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="K30">
         <v>2024</v>
       </c>
@@ -1569,107 +1575,98 @@
         <v>83.622627508559901</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="3">
         <v>26013100</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f>C5</f>
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="3">
         <v>26642300</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="I36" s="9">
-        <f>C6</f>
+      <c r="I36" s="8">
+        <f t="shared" ref="I35:I44" si="5">C6</f>
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="3">
         <v>27152700</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="I37" s="9">
-        <f>C7</f>
+      <c r="I37" s="8">
+        <f t="shared" si="5"/>
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I38" s="9">
-        <f>C8</f>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="8">
+        <f t="shared" si="5"/>
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I39" s="9">
-        <f>C9</f>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="8">
+        <f t="shared" si="5"/>
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I40" s="9">
-        <f>C10</f>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="8">
+        <f t="shared" si="5"/>
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I41" s="9">
-        <f>C11</f>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="8">
+        <f t="shared" si="5"/>
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I42" s="9">
-        <f>C12</f>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="8">
+        <f t="shared" si="5"/>
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I43" s="9">
-        <f>C13</f>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="8">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I44" s="9">
-        <f>C14</f>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="8">
+        <f t="shared" si="5"/>
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" t="s">
         <v>2</v>
       </c>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="8">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>2015</v>
       </c>
       <c r="C46" s="2">
@@ -1680,8 +1677,8 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="8">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47">
         <v>2016</v>
       </c>
       <c r="C47" s="2">
@@ -1692,8 +1689,8 @@
       </c>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="8">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48">
         <v>2017</v>
       </c>
       <c r="C48" s="2">
@@ -1703,8 +1700,8 @@
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="8">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
         <v>2018</v>
       </c>
       <c r="C49" s="2">
@@ -1714,8 +1711,8 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="8">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50">
         <v>2019</v>
       </c>
       <c r="C50" s="2">
@@ -1725,8 +1722,8 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="8">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51">
         <v>2020</v>
       </c>
       <c r="C51" s="2">
@@ -1736,8 +1733,8 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="8">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52">
         <v>2021</v>
       </c>
       <c r="C52" s="2">
@@ -1747,8 +1744,8 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="8">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53">
         <v>2022</v>
       </c>
       <c r="C53" s="2">
@@ -1758,8 +1755,8 @@
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="8">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54">
         <v>2023</v>
       </c>
       <c r="C54" s="2">
@@ -1769,8 +1766,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="8">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55">
         <v>2024</v>
       </c>
       <c r="C55" s="2">
@@ -1789,4 +1786,118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A7B682-06C5-6248-8E9B-D70517B60561}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>80.9007527837623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>1.6310046000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>80.955777855267442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>1.5814994999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>80.999480698664456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>1.513017E-2</v>
+      </c>
+      <c r="C5">
+        <v>81.097554783584684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>1.2338956E-2</v>
+      </c>
+      <c r="C6">
+        <v>81.068907884003423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>9.7794119999999995E-3</v>
+      </c>
+      <c r="C7">
+        <v>80.552727748340359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>9.888628E-3</v>
+      </c>
+      <c r="C8">
+        <v>81.094159946655921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>9.9970920000000008E-3</v>
+      </c>
+      <c r="C9">
+        <v>82.608594534154349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>